--- a/medicine/Mort/Décès_en_1987/Décès_en_1987.xlsx
+++ b/medicine/Mort/Décès_en_1987/Décès_en_1987.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1987</t>
+          <t>Décès_en_1987</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -509,7 +521,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1987</t>
+          <t>Décès_en_1987</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -529,12 +541,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Davos Hanich, peintre et sculpteur français (° 30 décembre 1922).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Davos Hanich, peintre et sculpteur français (° 30 décembre 1922).
 Ishiwata Koitsu, artiste et peintre japonais de l’école Shin-Hanga (° 1897).
-Edith Muriel Carlisle, médecin américaine (° 1922).
-Mars
-1er mars : Bertrand de Jouvenel, économiste et homme de lettres français (° 31 octobre 1903).
+Edith Muriel Carlisle, médecin américaine (° 1922).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1987</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1987</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er mars : Bertrand de Jouvenel, économiste et homme de lettres français (° 31 octobre 1903).
 2 mars : Ammar Farhat, peintre tunisien (° 1911).
 3 mars : Danny Kaye, acteur américain (° 18 janvier 1911).
 5 mars : Georges Arnaud, écrivain, auteur du Salaire de la peur (° 16 juillet 1917).
@@ -555,9 +606,43 @@
 William Bowers, scénariste américain (° 17 janvier 1916).
 Yūkei Teshima, peintre et calligraphe japonais (° 13 novembre 1901).
 28 mars : Patrick Troughton, acteur britannique (° 25 mars 1920).
-30 mars : André Marfaing, peintre et graveur français  (° 11 décembre 1925).
-Avril
-1er avril : Henri Cochet, joueur de tennis français (° 14 décembre 1901).
+30 mars : André Marfaing, peintre et graveur français  (° 11 décembre 1925).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1987</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1987</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er avril : Henri Cochet, joueur de tennis français (° 14 décembre 1901).
 3 avril : Robert Dalban, comédien français (° 19 juillet 1903).
 4 avril : Chögyam Trungpa Rinpoché, maître du bouddhisme tibétain (° 5 mars 1939).
 8 avril : Tommy Abbott, acteur, danseur et chorégraphe américain (° 4 novembre 1934).
@@ -570,14 +655,48 @@
 Harry Gourlay, personnalité politique britannique  (° 10 juillet 1916).
 24 avril : Alexis Chantraine, footballeur belge (° 16 mars 1901).
 27 avril : Robert Favre Le Bret, fondateur du Festival de Cannes (° 25 août 1904).
-30 avril : Marc Aaronson, astronome américain (° 24 août 1950).
-Mai
-1er mai : Fujio Yoshida, peintre et graveuse japonaise (° 5 octobre 1887).
+30 avril : Marc Aaronson, astronome américain (° 24 août 1950).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1987</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1987</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mai : Fujio Yoshida, peintre et graveuse japonaise (° 5 octobre 1887).
 3 mai :
 Dalida, chanteuse française (° 17 janvier 1933).
 Roberto Santos, réalisateur brésilien (° 15 avril 1928).
 4 mai : Noureddine Khayachi, peintre tunisien (° 14 décembre 1918).
-6 mai : Roger Magnin, joueur et entraîneur de football français (° 10 août 1916)[1].
+6 mai : Roger Magnin, joueur et entraîneur de football français (° 10 août 1916).
 7 mai :
 Charlotte Alix, décoratrice et peintre illustratrice française (° 15 octobre 1897).
 José Amaro, coureur cycliste portugais (° 13 janvier 1954).
@@ -590,9 +709,43 @@
 Rita Hayworth, actrice américaine (° 17 octobre 1918).
 19 mai : Stanisław Szukalski, peintre et sculpteur polonais (° 13 décembre 1893).
 26 mai : Ajita Wilson, actrice pornographique américaine (° 12 janvier 1950).
-31 mai : Domenico Piemontesi, coureur cycliste italien (° 11 janvier 1903).
-Juin
-2 juin :
+31 mai : Domenico Piemontesi, coureur cycliste italien (° 11 janvier 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1987</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1987</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 juin :
 Sammy Kaye, musicien américain (° 13 mars 1910).
 Andrès Segovia, guitariste espagnol (° 21 février 1893).
 3 juin : Pham Dang Tri, peintre vietnamien (° 24 août 1920).
@@ -612,9 +765,43 @@
 King Donovan, acteur et réalisateur américain (° 25 janvier 1918).
 Marthe Flandrin, peintre française (° 4 août 1904).
 Federico Mompou, compositeur et pianiste espagnol (° 16 avril 1893).
-? juin : Albert Harding, écrivain, ingénieur et homme politique américain (° 27 août 1912).
-Juillet
-3 juillet : Chuta Kimura, peintre japonais (° 25 février 1917).
+? juin : Albert Harding, écrivain, ingénieur et homme politique américain (° 27 août 1912).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1987</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1987</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 juillet : Chuta Kimura, peintre japonais (° 25 février 1917).
 4 juillet : Michel Paccard, joueur français de hockey sur glace (° 1er novembre 1908).
 8 juillet : Franjo Wölfl, footballeur international croate et yougoslave et sélectionneur de la Yougoslavie (° 18 mai 1918).
 15 juillet : Alfie Bass, acteur anglais (° 10 avril 1916).
@@ -622,10 +809,44 @@
 22 juillet : Henry Tayali, peintre, graveur, sculpteur, conteur et conférencier zambien (° 22 novembre 1943).
 26 juillet : Mario Radice, peintre italien (° 10 août 1898).
 28 juillet : Louis Monboucher, footballeur français (° 4 février 1921).
-31 juillet : Narciso Soldan, footballeur italien (° 11 décembre 1927)[2].
-31 juillet : Aleksandar Petrović, footballeur international yougoslave devenu entraîneur (° 8 septembre 1914).
-Août
-1er août :
+31 juillet : Narciso Soldan, footballeur italien (° 11 décembre 1927).
+31 juillet : Aleksandar Petrović, footballeur international yougoslave devenu entraîneur (° 8 septembre 1914).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1987</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1987</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er août :
 Pola Negri, actrice polonaise (° 3 janvier 1897).
 Alois Pfeiffer, syndicaliste et homme politique allemand (° 25 septembre 1924).
 2 août : Adolf Schön, coureur cycliste allemand (° 8 avril 1906).
@@ -647,9 +868,43 @@
 Bernard Giroux, journaliste sportif et copilote automobile français (° 10 mars 1950).
 24 août : Bayard Rustin, militant et stratège politique américain du mouvement des droits civiques (° 17 mars 1912).
 28 août : John Huston, acteur, scénariste et réalisateur américain (° 5 août 1906).
-29 août : Lee Marvin, acteur américain (° 19 février 1924).
-Septembre
-1er septembre : Philip Friend, acteur anglais (° 20 février 1915).
+29 août : Lee Marvin, acteur américain (° 19 février 1924).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1987</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1987</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er septembre : Philip Friend, acteur anglais (° 20 février 1915).
 2 septembre : Alfredo Oscar Saint-Jean, militaire et homme d'État argentin (° 11 novembre 1926).
 3 septembre : Morton Feldman, compositeur américain (° 12 janvier 1926).
 4 septembre :
@@ -669,9 +924,43 @@
 22 septembre : Alfred Georges Regner, peintre graveur français (° 22 février 1902).
 23 septembre : Bob Fosse, chorégraphe et réalisateur américain (° 23 juin 1927).
 27 septembre : Yves Lagatu, aviateur des Forces françaises libres, compagnon de la Libération (° 8 novembre 1914).
-30 septembre : Alfred Bester, auteur de science-fiction américain (° 18 décembre 1913).
-Octobre
-1er octobre : István Palotás, Footballeur international hongrosi devenu entraîneur (° 5 mars 1908).
+30 septembre : Alfred Bester, auteur de science-fiction américain (° 18 décembre 1913).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1987</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1987</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er octobre : István Palotás, Footballeur international hongrosi devenu entraîneur (° 5 mars 1908).
 3 octobre : Jean Anouilh, écrivain français (° 23 juin 1910).
 8 octobre :
 Louise-Denise Damasse, peintre portraitiste et résistante française (° 7 octobre 1901).
@@ -687,13 +976,81 @@
 27 octobre :
 Rudolf Haferkorn espérantiste allemand (° 21 août 1896).
 Mario Siciliano, scénariste, réalisateur et producteur de cinéma italien (° 9 mai 1925).
-28 octobre : André Masson, peintre, graveur, illustrateur et décorateur de théâtre français (° 4 janvier 1896).
-Novembre
-13 novembre : Marie-Renée Chevallier-Kervern, graveuse et peintre française (° 1902).
+28 octobre : André Masson, peintre, graveur, illustrateur et décorateur de théâtre français (° 4 janvier 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1987</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1987</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>13 novembre : Marie-Renée Chevallier-Kervern, graveuse et peintre française (° 1902).
 20 novembre : Claire Olivier-Tiberghien, peintre et professeur de dessin française (° 19 juin 1906).
-23 novembre : Gene Blakely, acteur américain  (° 8 juin 1922).
-Décembre
-1er décembre : Jean Avellaneda, footballeur français devenu entraîneur (° 11 octobre 1915).
+23 novembre : Gene Blakely, acteur américain  (° 8 juin 1922).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1987</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1987</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er décembre : Jean Avellaneda, footballeur français devenu entraîneur (° 11 octobre 1915).
 2 décembre : Donn Eisele, astronaute américain (° 23 juin 1930).
 4 décembre : Pericle Fazzini, peintre et sculpteur italien (° 4 mai 1913).
 7 décembre : Philippe Tesnière, coureur cycliste français (° 2 février 1955).
